--- a/SAM_por_grupo.xlsx
+++ b/SAM_por_grupo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091D995A-F748-4A61-8DC2-E5D99480C8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4B4B8-DCFA-4EB2-8541-D3869E1043C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
-  <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -309,6 +303,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Privados</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -515,22 +512,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -540,11 +532,15 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -811,7 +807,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -819,101 +815,101 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="23"/>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
-      <c r="C8" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="23"/>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
-      <c r="C14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="12"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="5"/>
@@ -925,15 +921,15 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="W17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="23"/>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -943,13 +939,13 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="W18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="5"/>
@@ -964,10 +960,10 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B20" s="11"/>
-      <c r="C20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="H20" s="5"/>
@@ -980,7 +976,7 @@
     <row r="21" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="5"/>
@@ -994,10 +990,9 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="D22" s="12"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
@@ -1010,7 +1005,7 @@
     <row r="23" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="5"/>
@@ -1024,10 +1019,10 @@
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="23"/>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="16"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="H24" s="5"/>
@@ -1040,7 +1035,7 @@
     <row r="25" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="5"/>
@@ -1054,10 +1049,10 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
-      <c r="C26" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="13"/>
+      <c r="C26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="12"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="H26" s="5"/>
@@ -1070,7 +1065,7 @@
     <row r="27" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="5"/>
@@ -1084,10 +1079,10 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="23"/>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="16"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="I28" s="5"/>
@@ -1097,432 +1092,430 @@
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
-      <c r="C30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="23"/>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="16"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="10"/>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="23"/>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="23"/>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="16"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="10"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="11"/>
-      <c r="C36" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="13"/>
+      <c r="C36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" s="10"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="11"/>
-      <c r="C38" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="23"/>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="16"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="23"/>
+      <c r="C40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="16"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="11"/>
-      <c r="C42" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="13"/>
+      <c r="C42" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="12"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="C43" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="11"/>
-      <c r="C44" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="23"/>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="16"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="C45" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D45" s="10"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="11"/>
-      <c r="C46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="23"/>
+      <c r="C46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="16"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
       <c r="C47" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="23"/>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="16"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="8"/>
       <c r="C49" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" s="10"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="11"/>
-      <c r="C50" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="23"/>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="8"/>
-      <c r="C51" s="25" t="s">
-        <v>42</v>
+      <c r="C51" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="23"/>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="16"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="23"/>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="24"/>
-      <c r="D56" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
       <c r="C57" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D57" s="10"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="23"/>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="C59" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="10"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="23"/>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61" s="8"/>
       <c r="C61" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62" s="11"/>
-      <c r="C62" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="13"/>
+      <c r="C62" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="12"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="C63" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" s="11"/>
-      <c r="C64" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="23"/>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65" s="8"/>
       <c r="C65" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D65" s="10"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B66" s="11"/>
-      <c r="C66" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="13"/>
+      <c r="C66" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="12"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B67" s="8"/>
       <c r="C67" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D67" s="10"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="12"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="C69" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D69" s="10"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B70" s="11"/>
-      <c r="C70" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="13"/>
+      <c r="C70" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="12"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
-      <c r="C72" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="13"/>
+      <c r="C72" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="12"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B73" s="8"/>
       <c r="C73" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D73" s="10"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B74" s="11"/>
-      <c r="C74" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="23"/>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="16"/>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B75" s="8"/>
       <c r="C75" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D75" s="10"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B77" s="8"/>
       <c r="C77" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D77" s="10"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="23"/>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="16"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B79" s="8"/>
       <c r="C79" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D79" s="10"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
-      <c r="C80" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="13"/>
+      <c r="C80" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" s="12"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B81" s="8"/>
       <c r="C81" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D81" s="10"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" s="23"/>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="16"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="C83" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D83" s="10"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B84" s="11"/>
-      <c r="C84" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="13"/>
+      <c r="C84" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="12"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B85" s="8"/>
       <c r="C85" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D85" s="10"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B86" s="11"/>
-      <c r="C86" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="23"/>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B87" s="14"/>
-      <c r="C87" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D87" s="16"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="15"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D89" s="3" t="s">
-        <v>0</v>
+      <c r="B89" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D90" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D90" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/SAM_por_grupo.xlsx
+++ b/SAM_por_grupo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4B4B8-DCFA-4EB2-8541-D3869E1043C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C12A6AB-5703-401F-BCC4-6518E5B9992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -212,18 +212,12 @@
     <t>Celaya</t>
   </si>
   <si>
-    <t>Chichen Itza</t>
-  </si>
-  <si>
     <t>Ciudad Juárez</t>
   </si>
   <si>
     <t>Ciudad Victoria</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
     <t>Creel/Barrancas del cobre</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>Fuente: AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
   <si>
-    <t>Sistema Aeroportuario Mexicano por grupo aeroportuairo 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve"> AICM Aeropuerto Internacional de la Ciudad de México</t>
   </si>
   <si>
@@ -306,6 +297,15 @@
   </si>
   <si>
     <t>Actualización: mayo 2024.</t>
+  </si>
+  <si>
+    <t>Chichen Itzá</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
+  </si>
+  <si>
+    <t>Sistema Aeroportuario Mexicano por grupo aeroportuario 2024</t>
   </si>
 </sst>
 </file>
@@ -807,7 +807,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -815,16 +815,16 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -838,7 +838,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -846,13 +846,13 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -873,7 +873,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="12"/>
@@ -895,7 +895,7 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" s="10"/>
     </row>
@@ -990,7 +990,7 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B22" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="5"/>
@@ -1050,7 +1050,7 @@
     <row r="26" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B26" s="11"/>
       <c r="C26" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="5"/>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="29" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21"/>
@@ -1115,7 +1115,7 @@
     <row r="32" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="16"/>
     </row>
@@ -1164,20 +1164,20 @@
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" s="10"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="11"/>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D40" s="16"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -1192,7 +1192,7 @@
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="8"/>
       <c r="C43" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D43" s="10"/>
     </row>
@@ -1206,7 +1206,7 @@
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="8"/>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D45" s="10"/>
     </row>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="12"/>
@@ -1304,7 +1304,7 @@
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59" s="8"/>
       <c r="C59" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="10"/>
     </row>
@@ -1332,7 +1332,7 @@
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63" s="8"/>
       <c r="C63" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D63" s="10"/>
     </row>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B68" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="12"/>
@@ -1374,7 +1374,7 @@
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B69" s="8"/>
       <c r="C69" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D69" s="10"/>
     </row>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B71" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
@@ -1395,7 +1395,7 @@
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B72" s="11"/>
       <c r="C72" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D72" s="12"/>
     </row>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B76" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="24"/>
@@ -1451,7 +1451,7 @@
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B80" s="11"/>
       <c r="C80" s="17" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D80" s="12"/>
     </row>
@@ -1465,14 +1465,14 @@
     <row r="82" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B82" s="11"/>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D82" s="16"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B83" s="8"/>
       <c r="C83" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D83" s="10"/>
     </row>
@@ -1506,12 +1506,12 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B89" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.35">

--- a/SAM_por_grupo.xlsx
+++ b/SAM_por_grupo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C12A6AB-5703-401F-BCC4-6518E5B9992F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A5045B-9EB5-468C-8A2F-8F4DD7E4F6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_3" sheetId="1" r:id="rId1"/>
@@ -254,36 +254,6 @@
     <t>Fuente: AFAC. Agencia Federal de Aviación Civil.</t>
   </si>
   <si>
-    <t xml:space="preserve"> AICM Aeropuerto Internacional de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AIFA Aeropuerto Internacional Felipe Ángeles</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASA Aeropuertos de Servicios Auxiliares</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ASUR Grupo Aeroportuario del Sureste</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GACM Grupo Aeroportuario de la Ciudad de México</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAFSACOMM Grupo Aeroportuario, Ferroviario, de Servicios Auxiliares y Conexos, Olmeca-Maya-Mexica</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GAP Grupo Aeroportuario del Pacífico</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> GATM Grupo Aeroportuario Turístico Mexicano</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> OMA Grupo Aeroportuario Centro Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sociedades En sociedad</t>
-  </si>
-  <si>
     <t>Otros Incluye aeropuertos paraestatales, estatales, particulares y municipales</t>
   </si>
   <si>
@@ -293,12 +263,6 @@
     <t>Aeropuerto</t>
   </si>
   <si>
-    <t xml:space="preserve"> Privados</t>
-  </si>
-  <si>
-    <t>Actualización: mayo 2024.</t>
-  </si>
-  <si>
     <t>Chichen Itzá</t>
   </si>
   <si>
@@ -306,6 +270,42 @@
   </si>
   <si>
     <t>Sistema Aeroportuario Mexicano por grupo aeroportuario 2024</t>
+  </si>
+  <si>
+    <t>AICM Aeropuerto Internacional de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>AIFA Aeropuerto Internacional Felipe Ángeles</t>
+  </si>
+  <si>
+    <t>ASA Aeropuertos de Servicios Auxiliares</t>
+  </si>
+  <si>
+    <t>ASUR Grupo Aeroportuario del Sureste</t>
+  </si>
+  <si>
+    <t>GACM Grupo Aeroportuario de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>GAFSACOMM Grupo Aeroportuario, Ferroviario, de Servicios Auxiliares y Conexos, Olmeca-Maya-Mexica</t>
+  </si>
+  <si>
+    <t>GAP Grupo Aeroportuario del Pacífico</t>
+  </si>
+  <si>
+    <t>GATM Grupo Aeroportuario Turístico Mexicano</t>
+  </si>
+  <si>
+    <t>OMA Grupo Aeroportuario Centro Norte</t>
+  </si>
+  <si>
+    <t>Privados</t>
+  </si>
+  <si>
+    <t>Sociedades En sociedad</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -319,40 +319,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -489,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -523,7 +523,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -562,7 +563,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -570,28 +571,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -600,14 +601,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -788,125 +789,125 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.296875" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
-        <v>72</v>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="8" t="s">
-        <v>73</v>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="17" t="s">
         <v>69</v>
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="8" t="s">
-        <v>74</v>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="11"/>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="16"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="9" t="s">
         <v>32</v>
@@ -924,7 +925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>8</v>
@@ -942,7 +943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="9" t="s">
         <v>46</v>
@@ -958,7 +959,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="17" t="s">
         <v>5</v>
@@ -973,7 +974,7 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="9" t="s">
         <v>52</v>
@@ -988,9 +989,9 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="5"/>
@@ -1002,7 +1003,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="9" t="s">
         <v>17</v>
@@ -1017,7 +1018,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" t="s">
         <v>18</v>
@@ -1032,7 +1033,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="9" t="s">
         <v>4</v>
@@ -1047,7 +1048,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="17" t="s">
         <v>65</v>
@@ -1062,7 +1063,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
       <c r="C27" s="9" t="s">
         <v>25</v>
@@ -1077,7 +1078,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" t="s">
         <v>28</v>
@@ -1091,430 +1092,430 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="8"/>
       <c r="C31" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" t="s">
         <v>35</v>
       </c>
       <c r="D34" s="16"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="11"/>
       <c r="C36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
       <c r="C37" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="16"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>62</v>
       </c>
       <c r="D40" s="16"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="8" t="s">
-        <v>78</v>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="11"/>
       <c r="C42" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" t="s">
         <v>23</v>
       </c>
       <c r="D46" s="16"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="16"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D49" s="10"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="11"/>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="16"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="18" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="10"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" t="s">
         <v>43</v>
       </c>
       <c r="D52" s="16"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B53" s="8" t="s">
-        <v>79</v>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="16"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D55" s="10"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="12"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="8"/>
       <c r="C57" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="C58" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="16"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
       <c r="C59" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D59" s="10"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="C60" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="16"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
       <c r="C61" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="10"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="C62" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D62" s="12"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="8"/>
       <c r="C63" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D63" s="10"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="C64" t="s">
         <v>41</v>
       </c>
       <c r="D64" s="16"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
       <c r="C65" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="10"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="11"/>
       <c r="C66" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D66" s="12"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="8"/>
       <c r="C67" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D67" s="10"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="12"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D69" s="10"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="11"/>
       <c r="C70" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="12"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B71" s="8" t="s">
-        <v>81</v>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="10"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="11"/>
       <c r="C72" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D72" s="12"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D73" s="10"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="11"/>
       <c r="C74" t="s">
         <v>10</v>
       </c>
       <c r="D74" s="16"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D75" s="10"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B76" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="8"/>
       <c r="C77" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D77" s="10"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="11"/>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="16"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
       <c r="C79" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D79" s="10"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="11"/>
       <c r="C80" s="17" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D80" s="12"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="10"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="11"/>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D82" s="16"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="8"/>
       <c r="C83" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D83" s="10"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="11"/>
       <c r="C84" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="12"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="8"/>
       <c r="C85" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D85" s="10"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="11"/>
       <c r="C86" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="16"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="15"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D90" s="3"/>
     </row>
   </sheetData>

--- a/SAM_por_grupo.xlsx
+++ b/SAM_por_grupo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A5045B-9EB5-468C-8A2F-8F4DD7E4F6E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E9F7F-C071-40A6-8564-30906B338969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -324,19 +324,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -350,11 +337,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -487,60 +489,60 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,741 +791,742 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="12.375" customWidth="1"/>
-    <col min="11" max="11" width="20.5" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
-      <c r="C6" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
-      <c r="C8" s="17" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="10"/>
+      <c r="C8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9" t="s">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="17" t="s">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="10"/>
+      <c r="C14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" t="s">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="10"/>
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="W17" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="W17" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
-      <c r="C18" t="s">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B18" s="10"/>
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="W18" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="W18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
-      <c r="C20" s="17" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B20" s="10"/>
+      <c r="C20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B24" s="10"/>
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="17" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B26" s="10"/>
+      <c r="C26" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
-      <c r="C28" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B28" s="10"/>
+      <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+    </row>
+    <row r="29" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B30" s="10"/>
+      <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="10"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" t="s">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
+      <c r="B32" s="10"/>
+      <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="10"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" t="s">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="10"/>
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="10"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="17" t="s">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B36" s="10"/>
+      <c r="C36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
+      <c r="D36" s="13"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="10"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
-      <c r="C38" t="s">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="10"/>
+      <c r="C38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="10"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
-      <c r="C40" t="s">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B40" s="10"/>
+      <c r="C40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="19" t="s">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="C42" s="17" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B42" s="10"/>
+      <c r="C42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9" t="s">
+      <c r="D42" s="13"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
-      <c r="C44" t="s">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B44" s="10"/>
+      <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="16"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B45" s="7"/>
+      <c r="C45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" t="s">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B46" s="10"/>
+      <c r="C46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="16"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" t="s">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B48" s="10"/>
+      <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
-      <c r="C50" t="s">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B50" s="10"/>
+      <c r="C50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B51" s="7"/>
       <c r="C51" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
-      <c r="C52" t="s">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B52" s="10"/>
+      <c r="C52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B53" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
-      <c r="C54" t="s">
+      <c r="C53" s="8"/>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B54" s="10"/>
+      <c r="C54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="16"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="11" t="s">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B56" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="9" t="s">
+      <c r="C56" s="12"/>
+      <c r="D56" s="13"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="10"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
-      <c r="C58" t="s">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B58" s="10"/>
+      <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="9" t="s">
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B59" s="7"/>
+      <c r="C59" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
-      <c r="C60" t="s">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B60" s="10"/>
+      <c r="C60" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="9" t="s">
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B61" s="7"/>
+      <c r="C61" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
-      <c r="C62" s="17" t="s">
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B62" s="10"/>
+      <c r="C62" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="9" t="s">
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B63" s="7"/>
+      <c r="C63" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
-      <c r="C64" t="s">
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B64" s="10"/>
+      <c r="C64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="9" t="s">
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B65" s="7"/>
+      <c r="C65" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
-      <c r="C66" s="17" t="s">
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B66" s="10"/>
+      <c r="C66" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D66" s="12"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="9" t="s">
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B67" s="7"/>
+      <c r="C67" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="10"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="11" t="s">
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B68" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
+      <c r="C68" s="12"/>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B69" s="7"/>
+      <c r="C69" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="10"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="17" t="s">
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B70" s="10"/>
+      <c r="C70" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="19" t="s">
+      <c r="D70" s="13"/>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B71" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="11"/>
-      <c r="C72" s="17" t="s">
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B72" s="10"/>
+      <c r="C72" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="12"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
-      <c r="C73" s="9" t="s">
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B73" s="7"/>
+      <c r="C73" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="11"/>
-      <c r="C74" t="s">
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B74" s="10"/>
+      <c r="C74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
-      <c r="C75" s="9" t="s">
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B75" s="7"/>
+      <c r="C75" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="23" t="s">
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B76" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
-      <c r="C77" s="9" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B77" s="7"/>
+      <c r="C77" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="10"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="11"/>
-      <c r="C78" t="s">
+      <c r="D77" s="9"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B78" s="10"/>
+      <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="16"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
-      <c r="C79" s="9" t="s">
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B79" s="7"/>
+      <c r="C79" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="10"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="11"/>
-      <c r="C80" s="17" t="s">
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B80" s="10"/>
+      <c r="C80" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
-      <c r="C81" s="9" t="s">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B81" s="7"/>
+      <c r="C81" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="10"/>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="11"/>
-      <c r="C82" t="s">
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B82" s="10"/>
+      <c r="C82" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D82" s="16"/>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B83" s="7"/>
+      <c r="C83" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="11"/>
-      <c r="C84" s="17" t="s">
+      <c r="D83" s="9"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B84" s="10"/>
+      <c r="C84" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="9" t="s">
+      <c r="D84" s="13"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B85" s="7"/>
+      <c r="C85" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="10"/>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="11"/>
-      <c r="C86" t="s">
+      <c r="D85" s="9"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B86" s="10"/>
+      <c r="C86" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="16"/>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="14" t="s">
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B87" s="22"/>
+      <c r="C87" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="15"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="D87" s="24"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B88" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="3"/>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D90" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B76:D76"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SAM_por_grupo.xlsx
+++ b/SAM_por_grupo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\3-Transportes\Aéreo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\3-Transportes\Aéreo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01E9F7F-C071-40A6-8564-30906B338969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603E259-3EAD-4085-9428-99276DF17731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_3" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Durango</t>
   </si>
   <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
     <t>Oaxaca</t>
   </si>
   <si>
@@ -305,7 +302,10 @@
     <t>Sociedades En sociedad</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Actualización: Mayo 2025.</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +519,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -528,7 +535,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -537,12 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -791,7 +791,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.875" style="2" customWidth="1"/>
@@ -809,111 +809,111 @@
     <col min="14" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:4" ht="18">
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="7" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4">
       <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4">
       <c r="B7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4">
       <c r="B8" s="10"/>
       <c r="C8" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="B9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4">
       <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4">
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:4">
       <c r="B14" s="10"/>
       <c r="C14" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:4">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:4">
       <c r="B16" s="10"/>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:23">
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="14"/>
@@ -925,13 +925,13 @@
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
       <c r="W17" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
       <c r="B18" s="10"/>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="14"/>
@@ -943,13 +943,13 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="W18" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="14"/>
@@ -962,7 +962,7 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:23">
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
         <v>5</v>
@@ -977,10 +977,10 @@
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:23">
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="14"/>
@@ -992,9 +992,9 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:23">
       <c r="B22" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14"/>
@@ -1006,10 +1006,10 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:23">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="14"/>
@@ -1021,10 +1021,10 @@
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:23">
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="14"/>
@@ -1036,7 +1036,7 @@
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:23">
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
         <v>4</v>
@@ -1051,10 +1051,10 @@
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:23">
       <c r="B26" s="10"/>
       <c r="C26" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
@@ -1066,10 +1066,10 @@
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:23">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="14"/>
@@ -1081,10 +1081,10 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:23">
       <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="14"/>
@@ -1095,431 +1095,431 @@
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
     </row>
-    <row r="29" spans="2:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:23" ht="34.5" customHeight="1">
+      <c r="B29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="2:23">
       <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:23">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="9"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:23">
       <c r="B32" s="10"/>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="11"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:4">
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="9"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:4">
       <c r="B34" s="10"/>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="11"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:4">
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" s="9"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:4">
       <c r="B36" s="10"/>
       <c r="C36" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:4">
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="9"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:4">
       <c r="B38" s="10"/>
       <c r="C38" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="11"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:4">
       <c r="B39" s="7"/>
       <c r="C39" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="9"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:4">
       <c r="B40" s="10"/>
       <c r="C40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:4">
       <c r="B41" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:4">
       <c r="B42" s="10"/>
       <c r="C42" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:4">
       <c r="B43" s="7"/>
       <c r="C43" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:4">
       <c r="B44" s="10"/>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="11"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:4">
       <c r="B45" s="7"/>
       <c r="C45" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:4">
       <c r="B46" s="10"/>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="11"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:4">
       <c r="B47" s="7"/>
       <c r="C47" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:4">
       <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="11"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:4">
       <c r="B49" s="7"/>
       <c r="C49" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:4">
       <c r="B50" s="10"/>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="11"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:4">
       <c r="B51" s="7"/>
-      <c r="C51" s="18" t="s">
-        <v>40</v>
+      <c r="C51" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D51" s="9"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:4">
       <c r="B52" s="10"/>
       <c r="C52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:4">
       <c r="B53" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="9"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:4">
       <c r="B54" s="10"/>
       <c r="C54" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D54" s="11"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:4">
       <c r="B55" s="7"/>
       <c r="C55" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="9"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:4">
       <c r="B56" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:4">
       <c r="B57" s="7"/>
       <c r="C57" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="9"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:4">
       <c r="B58" s="10"/>
       <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="11"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:4">
       <c r="B59" s="7"/>
       <c r="C59" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="9"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:4">
       <c r="B60" s="10"/>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="11"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:4">
       <c r="B61" s="7"/>
       <c r="C61" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="9"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:4">
       <c r="B62" s="10"/>
       <c r="C62" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D62" s="13"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:4">
       <c r="B63" s="7"/>
       <c r="C63" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D63" s="9"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:4">
       <c r="B64" s="10"/>
       <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" s="11"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:4">
       <c r="B65" s="7"/>
       <c r="C65" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="9"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:4">
       <c r="B66" s="10"/>
       <c r="C66" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D66" s="13"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:4">
       <c r="B67" s="7"/>
       <c r="C67" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" s="9"/>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:4">
       <c r="B68" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:4">
       <c r="B69" s="7"/>
       <c r="C69" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D69" s="9"/>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:4">
       <c r="B70" s="10"/>
       <c r="C70" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" s="13"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:4">
       <c r="B71" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:4">
       <c r="B72" s="10"/>
       <c r="C72" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="13"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:4">
       <c r="B73" s="7"/>
       <c r="C73" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" s="9"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:4">
       <c r="B74" s="10"/>
       <c r="C74" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="11"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:4">
       <c r="B75" s="7"/>
       <c r="C75" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D75" s="9"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B76" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:4">
+      <c r="B76" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="2:4">
       <c r="B77" s="7"/>
       <c r="C77" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D77" s="9"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:4">
       <c r="B78" s="10"/>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D78" s="11"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:4">
       <c r="B79" s="7"/>
       <c r="C79" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D79" s="9"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:4">
       <c r="B80" s="10"/>
       <c r="C80" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" s="13"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:4">
       <c r="B81" s="7"/>
       <c r="C81" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="9"/>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:4">
       <c r="B82" s="10"/>
       <c r="C82" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="11"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:4">
       <c r="B83" s="7"/>
       <c r="C83" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D83" s="9"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:4">
       <c r="B84" s="10"/>
       <c r="C84" s="12" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D84" s="13"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:4">
       <c r="B85" s="7"/>
       <c r="C85" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" s="9"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:4">
       <c r="B86" s="10"/>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" s="11"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B87" s="22"/>
-      <c r="C87" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="24"/>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:4">
+      <c r="B87" s="16"/>
+      <c r="C87" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D87" s="18"/>
+    </row>
+    <row r="88" spans="2:4">
       <c r="B88" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:4">
       <c r="B89" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D90" s="25"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="D90" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
